--- a/BusinessConnectManagement/Uploads/Import/Business.xlsx
+++ b/BusinessConnectManagement/Uploads/Import/Business.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Don Duong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533A145-454B-4EA5-AFD4-3E00568A925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CABB1B-62AE-47C1-BACE-5BB3340696C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -71,16 +69,28 @@
     <t>Email Người Liên Hệ</t>
   </si>
   <si>
-    <t>testimport</t>
-  </si>
-  <si>
-    <t>TestImpor1</t>
-  </si>
-  <si>
-    <t>testImport</t>
-  </si>
-  <si>
-    <t>testImport@gmail.com</t>
+    <t>donduong</t>
+  </si>
+  <si>
+    <t>Đơn Dương</t>
+  </si>
+  <si>
+    <t>donduong@gmail.com</t>
+  </si>
+  <si>
+    <t>Đơn Dương 2</t>
+  </si>
+  <si>
+    <t>0346799117</t>
+  </si>
+  <si>
+    <t>donduong9@gmail.com</t>
+  </si>
+  <si>
+    <t>34679a9118</t>
+  </si>
+  <si>
+    <t>Hasayo Solution</t>
   </si>
 </sst>
 </file>
@@ -134,9 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -453,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCDAC2E-CA66-4457-A8CB-0345096E4973}">
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +480,7 @@
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
@@ -521,85 +533,774 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>124</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+      <c r="F6">
         <v>346799117</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5">
-        <v>346799117</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="1"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="1"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="1"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="1"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="1"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="I186" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{92AB9167-103A-4AD5-94A8-AC6B52EEB5A8}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{EEE846C4-5E60-442E-8668-F214AAD9ED0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
